--- a/cSingsSummTargetOpposit/Sources/яблокиВркмя_24_04_20.xlsx
+++ b/cSingsSummTargetOpposit/Sources/яблокиВркмя_24_04_20.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="10875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="10875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="127">
   <si>
     <t>298  out of  1996 12  out of  2004</t>
   </si>
@@ -75,6 +76,336 @@
   </si>
   <si>
     <t>8  out of  1100 53  out of  924</t>
+  </si>
+  <si>
+    <t>neuron_number</t>
+  </si>
+  <si>
+    <t>time_elapsed_seconds</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "22.04.2024 15</t>
+  </si>
+  <si>
+    <t>09"</t>
+  </si>
+  <si>
+    <t>threshold_left</t>
+  </si>
+  <si>
+    <t>threshold_right</t>
+  </si>
+  <si>
+    <t>category_left</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "1"</t>
+  </si>
+  <si>
+    <t>category_right</t>
+  </si>
+  <si>
+    <t>previous_weights</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "-1166</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -88"</t>
+  </si>
+  <si>
+    <t>cut_off_left</t>
+  </si>
+  <si>
+    <t>instances_left</t>
+  </si>
+  <si>
+    <t>cut_off_right</t>
+  </si>
+  <si>
+    <t>instances_right</t>
+  </si>
+  <si>
+    <t>33"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "-1153</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1528"</t>
+  </si>
+  <si>
+    <t>54"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "-1242</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2594"</t>
+  </si>
+  <si>
+    <t>07"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "228</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -82"</t>
+  </si>
+  <si>
+    <t>19"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "1395</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -516"</t>
+  </si>
+  <si>
+    <t>29"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "-219</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -216"</t>
+  </si>
+  <si>
+    <t>39"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "-168</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -65"</t>
+  </si>
+  <si>
+    <t>46"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "-110</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -915"</t>
+  </si>
+  <si>
+    <t>53"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "-665</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -142"</t>
+  </si>
+  <si>
+    <t>59"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "-74</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1242"</t>
+  </si>
+  <si>
+    <t>04"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "43</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1188"</t>
+  </si>
+  <si>
+    <t>08"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "-1239</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1033"</t>
+  </si>
+  <si>
+    <t>15"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "105</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 132"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "514</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 290"</t>
+  </si>
+  <si>
+    <t>23"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "1072</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 602"</t>
+  </si>
+  <si>
+    <t>26"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "521</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 218"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "706</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -150"</t>
+  </si>
+  <si>
+    <t>32"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "-427</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -163"</t>
+  </si>
+  <si>
+    <t>36"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "766</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -648"</t>
+  </si>
+  <si>
+    <t>38"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "-1194</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 211"</t>
+  </si>
+  <si>
+    <t>40"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "-101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 178"</t>
+  </si>
+  <si>
+    <t>42"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "-281</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37"</t>
+  </si>
+  <si>
+    <t>44"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "992</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1268"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "565</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1042"</t>
+  </si>
+  <si>
+    <t>48"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "128</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 657"</t>
+  </si>
+  <si>
+    <t>49"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "-904</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -141"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "668</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 194"</t>
+  </si>
+  <si>
+    <t>50"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "-362</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 238"</t>
+  </si>
+  <si>
+    <t>51"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "167</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 269"</t>
+  </si>
+  <si>
+    <t>52"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "-1373</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -488"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "886</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 759"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "150</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45"</t>
+  </si>
+  <si>
+    <t>55"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "1003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -354"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "493</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -517"</t>
   </si>
 </sst>
 </file>
@@ -510,7 +841,583 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.3312773403324584E-2"/>
+                  <c:y val="-0.43532407407407409"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$B$1:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$D$1:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>24.597000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.768000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.472</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6940000000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6649999999999991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.1689999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3410000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.254</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.9159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1579999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0870000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.613</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2120000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.84799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.72299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.92100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.85899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.747</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.17599999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C512-49CE-8217-622E7CEA4737}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="987549648"/>
+        <c:axId val="987552976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="987549648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="987552976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="987552976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="987549648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1066,6 +1973,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1080,6 +2503,41 @@
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1366,7 +2824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -1913,4 +3371,3365 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" activeCellId="2" sqref="A1:XFD1 A2:XFD2 A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1">
+        <v>24.597000000000001</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1">
+        <v>-13321183</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1">
+        <v>4509400</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1">
+        <v>-460</v>
+      </c>
+      <c r="T1">
+        <v>-765</v>
+      </c>
+      <c r="U1">
+        <v>-318</v>
+      </c>
+      <c r="V1">
+        <v>215</v>
+      </c>
+      <c r="W1">
+        <v>1479</v>
+      </c>
+      <c r="X1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1">
+        <v>2</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1">
+        <v>399</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1">
+        <v>119</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>20.692</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2">
+        <v>-6962888</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2">
+        <v>9118781</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2">
+        <v>1277</v>
+      </c>
+      <c r="T2">
+        <v>259</v>
+      </c>
+      <c r="U2">
+        <v>269</v>
+      </c>
+      <c r="V2">
+        <v>406</v>
+      </c>
+      <c r="W2">
+        <v>-899</v>
+      </c>
+      <c r="X2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2">
+        <v>54</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB2">
+        <v>401</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD2">
+        <v>38</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>12.768000000000001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>-8344623</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3">
+        <v>8747806</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3">
+        <v>-166</v>
+      </c>
+      <c r="T3">
+        <v>-1006</v>
+      </c>
+      <c r="U3">
+        <v>364</v>
+      </c>
+      <c r="V3">
+        <v>-1217</v>
+      </c>
+      <c r="W3">
+        <v>-217</v>
+      </c>
+      <c r="X3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3">
+        <v>20</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB3">
+        <v>309</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD3">
+        <v>38</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>12.472</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4">
+        <v>-4601265</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4">
+        <v>5742774</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4">
+        <v>692</v>
+      </c>
+      <c r="T4">
+        <v>340</v>
+      </c>
+      <c r="U4">
+        <v>-1659</v>
+      </c>
+      <c r="V4">
+        <v>-528</v>
+      </c>
+      <c r="W4">
+        <v>82</v>
+      </c>
+      <c r="X4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4">
+        <v>50</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB4">
+        <v>289</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD4">
+        <v>10</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>9.6940000000000008</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>57</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>-6318719</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5">
+        <v>11341552</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5">
+        <v>-1246</v>
+      </c>
+      <c r="T5">
+        <v>248</v>
+      </c>
+      <c r="U5">
+        <v>963</v>
+      </c>
+      <c r="V5">
+        <v>-1331</v>
+      </c>
+      <c r="W5">
+        <v>-1238</v>
+      </c>
+      <c r="X5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z5">
+        <v>12</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB5">
+        <v>240</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD5">
+        <v>24</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>9.6649999999999991</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <v>-7644136</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6">
+        <v>8515845</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6">
+        <v>-1173</v>
+      </c>
+      <c r="T6">
+        <v>1581</v>
+      </c>
+      <c r="U6">
+        <v>431</v>
+      </c>
+      <c r="V6">
+        <v>537</v>
+      </c>
+      <c r="W6">
+        <v>593</v>
+      </c>
+      <c r="X6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z6">
+        <v>12</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB6">
+        <v>229</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD6">
+        <v>15</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF6">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>6.89</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7">
+        <v>-1896424</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7">
+        <v>3097147</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s">
+        <v>51</v>
+      </c>
+      <c r="S7">
+        <v>-862</v>
+      </c>
+      <c r="T7">
+        <v>-357</v>
+      </c>
+      <c r="U7">
+        <v>287</v>
+      </c>
+      <c r="V7">
+        <v>138</v>
+      </c>
+      <c r="W7">
+        <v>-289</v>
+      </c>
+      <c r="X7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z7">
+        <v>20</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB7">
+        <v>202</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD7">
+        <v>5</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF7">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8">
+        <v>-7580233</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8">
+        <v>7219596</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" t="s">
+        <v>54</v>
+      </c>
+      <c r="S8">
+        <v>-1052</v>
+      </c>
+      <c r="T8">
+        <v>883</v>
+      </c>
+      <c r="U8">
+        <v>89</v>
+      </c>
+      <c r="V8">
+        <v>-1171</v>
+      </c>
+      <c r="W8">
+        <v>-557</v>
+      </c>
+      <c r="X8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z8">
+        <v>3</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB8">
+        <v>204</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD8">
+        <v>14</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF8">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>6.298</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9">
+        <v>-2272879</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9">
+        <v>2528677</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9">
+        <v>237</v>
+      </c>
+      <c r="T9">
+        <v>-5</v>
+      </c>
+      <c r="U9">
+        <v>-193</v>
+      </c>
+      <c r="V9">
+        <v>11</v>
+      </c>
+      <c r="W9">
+        <v>204</v>
+      </c>
+      <c r="X9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z9">
+        <v>17</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB9">
+        <v>177</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD9">
+        <v>3</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF9">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>5.1050000000000004</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10">
+        <v>-6131788</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10">
+        <v>12351127</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
+        <v>60</v>
+      </c>
+      <c r="S10">
+        <v>859</v>
+      </c>
+      <c r="T10">
+        <v>120</v>
+      </c>
+      <c r="U10">
+        <v>-788</v>
+      </c>
+      <c r="V10">
+        <v>581</v>
+      </c>
+      <c r="W10">
+        <v>-860</v>
+      </c>
+      <c r="X10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z10">
+        <v>14</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB10">
+        <v>187</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF10">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>4.2750000000000004</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11">
+        <v>-5111104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11">
+        <v>8624073</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" t="s">
+        <v>63</v>
+      </c>
+      <c r="S11">
+        <v>-444</v>
+      </c>
+      <c r="T11">
+        <v>-802</v>
+      </c>
+      <c r="U11">
+        <v>442</v>
+      </c>
+      <c r="V11">
+        <v>508</v>
+      </c>
+      <c r="W11">
+        <v>-1406</v>
+      </c>
+      <c r="X11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z11">
+        <v>14</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB11">
+        <v>157</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD11">
+        <v>5</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF11">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>6.1689999999999996</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>58</v>
+      </c>
+      <c r="H12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12">
+        <v>-10551544</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12">
+        <v>7158197</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" t="s">
+        <v>66</v>
+      </c>
+      <c r="S12">
+        <v>842</v>
+      </c>
+      <c r="T12">
+        <v>798</v>
+      </c>
+      <c r="U12">
+        <v>463</v>
+      </c>
+      <c r="V12">
+        <v>-78</v>
+      </c>
+      <c r="W12">
+        <v>-762</v>
+      </c>
+      <c r="X12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB12">
+        <v>138</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD12">
+        <v>16</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF12">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>4.3410000000000002</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13">
+        <v>-6994433</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13">
+        <v>4760790</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" t="s">
+        <v>69</v>
+      </c>
+      <c r="S13">
+        <v>-731</v>
+      </c>
+      <c r="T13">
+        <v>350</v>
+      </c>
+      <c r="U13">
+        <v>-1311</v>
+      </c>
+      <c r="V13">
+        <v>231</v>
+      </c>
+      <c r="W13">
+        <v>-1100</v>
+      </c>
+      <c r="X13" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB13">
+        <v>137</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD13">
+        <v>15</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF13">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>3.9009999999999998</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>58</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14">
+        <v>-3147092</v>
+      </c>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14">
+        <v>3464553</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" t="s">
+        <v>71</v>
+      </c>
+      <c r="S14">
+        <v>-232</v>
+      </c>
+      <c r="T14">
+        <v>807</v>
+      </c>
+      <c r="U14">
+        <v>537</v>
+      </c>
+      <c r="V14">
+        <v>212</v>
+      </c>
+      <c r="W14">
+        <v>-1130</v>
+      </c>
+      <c r="X14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z14">
+        <v>18</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB14">
+        <v>156</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF14">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>3.254</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>58</v>
+      </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15">
+        <v>-5507037</v>
+      </c>
+      <c r="K15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15">
+        <v>6142470</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" t="s">
+        <v>74</v>
+      </c>
+      <c r="S15">
+        <v>-1306</v>
+      </c>
+      <c r="T15">
+        <v>276</v>
+      </c>
+      <c r="U15">
+        <v>98</v>
+      </c>
+      <c r="V15">
+        <v>-1370</v>
+      </c>
+      <c r="W15">
+        <v>-537</v>
+      </c>
+      <c r="X15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z15">
+        <v>5</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB15">
+        <v>121</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD15">
+        <v>10</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>2.9159999999999999</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16">
+        <v>-4128957</v>
+      </c>
+      <c r="K16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16">
+        <v>2101070</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" t="s">
+        <v>77</v>
+      </c>
+      <c r="S16">
+        <v>-345</v>
+      </c>
+      <c r="T16">
+        <v>574</v>
+      </c>
+      <c r="U16">
+        <v>546</v>
+      </c>
+      <c r="V16">
+        <v>227</v>
+      </c>
+      <c r="W16">
+        <v>403</v>
+      </c>
+      <c r="X16" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB16">
+        <v>128</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD16">
+        <v>19</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF16">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>3.1579999999999999</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>58</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17">
+        <v>-3377874</v>
+      </c>
+      <c r="K17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17">
+        <v>7685693</v>
+      </c>
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" t="s">
+        <v>79</v>
+      </c>
+      <c r="S17">
+        <v>728</v>
+      </c>
+      <c r="T17">
+        <v>493</v>
+      </c>
+      <c r="U17">
+        <v>221</v>
+      </c>
+      <c r="V17">
+        <v>-767</v>
+      </c>
+      <c r="W17">
+        <v>-1370</v>
+      </c>
+      <c r="X17" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z17">
+        <v>10</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB17">
+        <v>127</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD17">
+        <v>3</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF17">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>3.3860000000000001</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>58</v>
+      </c>
+      <c r="H18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18">
+        <v>-1424980</v>
+      </c>
+      <c r="K18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18">
+        <v>4344042</v>
+      </c>
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" t="s">
+        <v>82</v>
+      </c>
+      <c r="S18">
+        <v>-251</v>
+      </c>
+      <c r="T18">
+        <v>-108</v>
+      </c>
+      <c r="U18">
+        <v>94</v>
+      </c>
+      <c r="V18">
+        <v>68</v>
+      </c>
+      <c r="W18">
+        <v>-1124</v>
+      </c>
+      <c r="X18" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z18">
+        <v>11</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB18">
+        <v>97</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD18">
+        <v>4</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF18">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>2.0870000000000002</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>58</v>
+      </c>
+      <c r="H19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19">
+        <v>-2672889</v>
+      </c>
+      <c r="K19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19">
+        <v>6342310</v>
+      </c>
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" t="s">
+        <v>85</v>
+      </c>
+      <c r="S19">
+        <v>319</v>
+      </c>
+      <c r="T19">
+        <v>-688</v>
+      </c>
+      <c r="U19">
+        <v>340</v>
+      </c>
+      <c r="V19">
+        <v>1181</v>
+      </c>
+      <c r="W19">
+        <v>-850</v>
+      </c>
+      <c r="X19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z19">
+        <v>14</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB19">
+        <v>114</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD19">
+        <v>4</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF19">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>2.0910000000000002</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>58</v>
+      </c>
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20">
+        <v>-2101933</v>
+      </c>
+      <c r="K20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20">
+        <v>9764663</v>
+      </c>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" t="s">
+        <v>88</v>
+      </c>
+      <c r="S20">
+        <v>-148</v>
+      </c>
+      <c r="T20">
+        <v>-916</v>
+      </c>
+      <c r="U20">
+        <v>320</v>
+      </c>
+      <c r="V20">
+        <v>-1039</v>
+      </c>
+      <c r="W20">
+        <v>-540</v>
+      </c>
+      <c r="X20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z20">
+        <v>13</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB20">
+        <v>82</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF20">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>2.2709999999999999</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>58</v>
+      </c>
+      <c r="H21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21">
+        <v>-2097005</v>
+      </c>
+      <c r="K21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21">
+        <v>2629576</v>
+      </c>
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21" t="s">
+        <v>91</v>
+      </c>
+      <c r="S21">
+        <v>292</v>
+      </c>
+      <c r="T21">
+        <v>-781</v>
+      </c>
+      <c r="U21">
+        <v>-176</v>
+      </c>
+      <c r="V21">
+        <v>453</v>
+      </c>
+      <c r="W21">
+        <v>-105</v>
+      </c>
+      <c r="X21" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z21">
+        <v>7</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB21">
+        <v>96</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD21">
+        <v>7</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF21">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>1.613</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>58</v>
+      </c>
+      <c r="H22" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22">
+        <v>-695641</v>
+      </c>
+      <c r="K22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22">
+        <v>3600963</v>
+      </c>
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O22" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" t="s">
+        <v>94</v>
+      </c>
+      <c r="S22">
+        <v>375</v>
+      </c>
+      <c r="T22">
+        <v>-870</v>
+      </c>
+      <c r="U22">
+        <v>-193</v>
+      </c>
+      <c r="V22">
+        <v>41</v>
+      </c>
+      <c r="W22">
+        <v>-759</v>
+      </c>
+      <c r="X22" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z22">
+        <v>11</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB22">
+        <v>68</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD22">
+        <v>3</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF22">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>58</v>
+      </c>
+      <c r="H23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23">
+        <v>-1956260</v>
+      </c>
+      <c r="K23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23">
+        <v>5934487</v>
+      </c>
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23" t="s">
+        <v>97</v>
+      </c>
+      <c r="S23">
+        <v>820</v>
+      </c>
+      <c r="T23">
+        <v>348</v>
+      </c>
+      <c r="U23">
+        <v>311</v>
+      </c>
+      <c r="V23">
+        <v>-207</v>
+      </c>
+      <c r="W23">
+        <v>-140</v>
+      </c>
+      <c r="X23" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z23">
+        <v>12</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB23">
+        <v>82</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD23">
+        <v>2</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF23">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>58</v>
+      </c>
+      <c r="H24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24">
+        <v>-1511369</v>
+      </c>
+      <c r="K24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24">
+        <v>3042314</v>
+      </c>
+      <c r="M24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" t="s">
+        <v>99</v>
+      </c>
+      <c r="S24">
+        <v>212</v>
+      </c>
+      <c r="T24">
+        <v>198</v>
+      </c>
+      <c r="U24">
+        <v>1475</v>
+      </c>
+      <c r="V24">
+        <v>957</v>
+      </c>
+      <c r="W24">
+        <v>-360</v>
+      </c>
+      <c r="X24" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB24">
+        <v>68</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD24">
+        <v>14</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>58</v>
+      </c>
+      <c r="H25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25">
+        <v>-2067121</v>
+      </c>
+      <c r="K25" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25">
+        <v>8797002</v>
+      </c>
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25" t="s">
+        <v>102</v>
+      </c>
+      <c r="S25">
+        <v>992</v>
+      </c>
+      <c r="T25">
+        <v>287</v>
+      </c>
+      <c r="U25">
+        <v>-96</v>
+      </c>
+      <c r="V25">
+        <v>454</v>
+      </c>
+      <c r="W25">
+        <v>-2173</v>
+      </c>
+      <c r="X25" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z25">
+        <v>12</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB25">
+        <v>68</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD25">
+        <v>2</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>58</v>
+      </c>
+      <c r="H26" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26">
+        <v>-154766</v>
+      </c>
+      <c r="K26" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26">
+        <v>4983643</v>
+      </c>
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" t="s">
+        <v>35</v>
+      </c>
+      <c r="O26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" t="s">
+        <v>105</v>
+      </c>
+      <c r="S26">
+        <v>227</v>
+      </c>
+      <c r="T26">
+        <v>-461</v>
+      </c>
+      <c r="U26">
+        <v>386</v>
+      </c>
+      <c r="V26">
+        <v>-154</v>
+      </c>
+      <c r="W26">
+        <v>-1249</v>
+      </c>
+      <c r="X26" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z26">
+        <v>6</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB26">
+        <v>40</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD26">
+        <v>4</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF26">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <v>58</v>
+      </c>
+      <c r="H27" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27">
+        <v>-1753210</v>
+      </c>
+      <c r="K27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27">
+        <v>5488391</v>
+      </c>
+      <c r="M27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" t="s">
+        <v>107</v>
+      </c>
+      <c r="S27">
+        <v>791</v>
+      </c>
+      <c r="T27">
+        <v>532</v>
+      </c>
+      <c r="U27">
+        <v>285</v>
+      </c>
+      <c r="V27">
+        <v>-767</v>
+      </c>
+      <c r="W27">
+        <v>-1370</v>
+      </c>
+      <c r="X27" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z27">
+        <v>4</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB27">
+        <v>50</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD27">
+        <v>8</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <v>58</v>
+      </c>
+      <c r="H28" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28">
+        <v>-1048060</v>
+      </c>
+      <c r="K28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28">
+        <v>1376748</v>
+      </c>
+      <c r="M28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>27</v>
+      </c>
+      <c r="R28" t="s">
+        <v>110</v>
+      </c>
+      <c r="S28">
+        <v>307</v>
+      </c>
+      <c r="T28">
+        <v>255</v>
+      </c>
+      <c r="U28">
+        <v>-112</v>
+      </c>
+      <c r="V28">
+        <v>-677</v>
+      </c>
+      <c r="W28">
+        <v>-183</v>
+      </c>
+      <c r="X28" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z28">
+        <v>2</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB28">
+        <v>46</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD28">
+        <v>13</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF28">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>0.747</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29">
+        <v>58</v>
+      </c>
+      <c r="H29" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29">
+        <v>-1960475</v>
+      </c>
+      <c r="K29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29">
+        <v>4176288</v>
+      </c>
+      <c r="M29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" t="s">
+        <v>35</v>
+      </c>
+      <c r="O29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>27</v>
+      </c>
+      <c r="R29" t="s">
+        <v>113</v>
+      </c>
+      <c r="S29">
+        <v>-777</v>
+      </c>
+      <c r="T29">
+        <v>444</v>
+      </c>
+      <c r="U29">
+        <v>-420</v>
+      </c>
+      <c r="V29">
+        <v>-74</v>
+      </c>
+      <c r="W29">
+        <v>-1326</v>
+      </c>
+      <c r="X29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z29">
+        <v>5</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB29">
+        <v>26</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD29">
+        <v>3</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30">
+        <v>58</v>
+      </c>
+      <c r="H30" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30">
+        <v>-3377407</v>
+      </c>
+      <c r="K30" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30">
+        <v>6465382</v>
+      </c>
+      <c r="M30" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>27</v>
+      </c>
+      <c r="R30" t="s">
+        <v>116</v>
+      </c>
+      <c r="S30">
+        <v>330</v>
+      </c>
+      <c r="T30">
+        <v>1326</v>
+      </c>
+      <c r="U30">
+        <v>459</v>
+      </c>
+      <c r="V30">
+        <v>-1195</v>
+      </c>
+      <c r="W30">
+        <v>-263</v>
+      </c>
+      <c r="X30" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z30">
+        <v>7</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB30">
+        <v>31</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF30">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>1.2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>58</v>
+      </c>
+      <c r="H31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31">
+        <v>-2199561</v>
+      </c>
+      <c r="K31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31">
+        <v>2985379</v>
+      </c>
+      <c r="M31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O31" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>27</v>
+      </c>
+      <c r="R31" t="s">
+        <v>118</v>
+      </c>
+      <c r="S31">
+        <v>-40</v>
+      </c>
+      <c r="T31">
+        <v>-271</v>
+      </c>
+      <c r="U31">
+        <v>-922</v>
+      </c>
+      <c r="V31">
+        <v>-467</v>
+      </c>
+      <c r="W31">
+        <v>-689</v>
+      </c>
+      <c r="X31" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z31">
+        <v>4</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB31">
+        <v>18</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD31">
+        <v>6</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32">
+        <v>58</v>
+      </c>
+      <c r="H32" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32">
+        <v>2504853</v>
+      </c>
+      <c r="K32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32">
+        <v>3257591</v>
+      </c>
+      <c r="M32" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>27</v>
+      </c>
+      <c r="R32" t="s">
+        <v>120</v>
+      </c>
+      <c r="S32">
+        <v>228</v>
+      </c>
+      <c r="T32">
+        <v>-1038</v>
+      </c>
+      <c r="U32">
+        <v>-187</v>
+      </c>
+      <c r="V32">
+        <v>41</v>
+      </c>
+      <c r="W32">
+        <v>-760</v>
+      </c>
+      <c r="X32" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z32">
+        <v>18</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB32">
+        <v>23</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD32">
+        <v>2</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33">
+        <v>58</v>
+      </c>
+      <c r="H33" t="s">
+        <v>122</v>
+      </c>
+      <c r="I33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33">
+        <v>3329433</v>
+      </c>
+      <c r="K33" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33">
+        <v>5126981</v>
+      </c>
+      <c r="M33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" t="s">
+        <v>35</v>
+      </c>
+      <c r="O33" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>27</v>
+      </c>
+      <c r="R33" t="s">
+        <v>123</v>
+      </c>
+      <c r="S33">
+        <v>861</v>
+      </c>
+      <c r="T33">
+        <v>-384</v>
+      </c>
+      <c r="U33">
+        <v>210</v>
+      </c>
+      <c r="V33">
+        <v>-236</v>
+      </c>
+      <c r="W33">
+        <v>-963</v>
+      </c>
+      <c r="X33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z33">
+        <v>4</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB33">
+        <v>6</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD33">
+        <v>2</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>58</v>
+      </c>
+      <c r="H34" t="s">
+        <v>122</v>
+      </c>
+      <c r="I34" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34">
+        <v>4036782</v>
+      </c>
+      <c r="K34" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34">
+        <v>4036782</v>
+      </c>
+      <c r="M34" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>27</v>
+      </c>
+      <c r="R34" t="s">
+        <v>125</v>
+      </c>
+      <c r="S34">
+        <v>48</v>
+      </c>
+      <c r="T34">
+        <v>-560</v>
+      </c>
+      <c r="U34">
+        <v>707</v>
+      </c>
+      <c r="V34">
+        <v>416</v>
+      </c>
+      <c r="W34">
+        <v>-1265</v>
+      </c>
+      <c r="X34" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z34">
+        <v>3</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB34">
+        <v>3</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD34">
+        <v>2</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF34">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>